--- a/biology/Médecine/Test_d'Erb/Test_d'Erb.xlsx
+++ b/biology/Médecine/Test_d'Erb/Test_d'Erb.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Test_d%27Erb</t>
+          <t>Test_d'Erb</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le test d'Erb, décrit par le neurologue allemand Wilhelm Erb, est un test manuel concernant le rachis cervical pour distinguer un syndrome foraminal des vertèbres cervicales d'un syndrome canalaire du membre supérieur.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Test_d%27Erb</t>
+          <t>Test_d'Erb</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
